--- a/JPS_1_AST/misc/Zapytania testowe JPS.xlsx
+++ b/JPS_1_AST/misc/Zapytania testowe JPS.xlsx
@@ -962,7 +962,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1159,7 +1159,7 @@
       <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       <c r="A26" t="s">
         <v>37</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>38</v>
       </c>
     </row>

--- a/JPS_1_AST/misc/Zapytania testowe JPS.xlsx
+++ b/JPS_1_AST/misc/Zapytania testowe JPS.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -609,7 +610,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,12 +620,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -652,9 +647,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -961,8 +953,8 @@
   <dimension ref="A1:B132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1239,7 +1231,7 @@
       <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1359,7 +1351,7 @@
       <c r="A49" t="s">
         <v>66</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1367,7 +1359,7 @@
       <c r="A50" t="s">
         <v>68</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1375,7 +1367,7 @@
       <c r="A51" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1383,7 +1375,7 @@
       <c r="A52" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1391,7 +1383,7 @@
       <c r="A53" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1399,7 +1391,7 @@
       <c r="A54" t="s">
         <v>75</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1407,7 +1399,7 @@
       <c r="A55" t="s">
         <v>77</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>78</v>
       </c>
     </row>

--- a/JPS_1_AST/misc/Zapytania testowe JPS.xlsx
+++ b/JPS_1_AST/misc/Zapytania testowe JPS.xlsx
@@ -640,14 +640,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,9 +952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -975,7 +975,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="b">
+      <c r="B2" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -983,7 +983,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="b">
+      <c r="B3" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -991,7 +991,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="b">
+      <c r="B4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -999,7 +999,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="b">
+      <c r="B5" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="b">
+      <c r="B6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="b">
+      <c r="B7" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1023,15 +1023,15 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="b">
+      <c r="B9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="b">
+      <c r="B10" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       <c r="A26" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       <c r="A32" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       <c r="A35" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="3" t="b">
+      <c r="B35" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       <c r="A36" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="3" t="b">
+      <c r="B36" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       <c r="A37" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       <c r="A38" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="3" t="b">
+      <c r="B38" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       <c r="A39" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="3" t="b">
+      <c r="B39" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       <c r="A40" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="3" t="b">
+      <c r="B40" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       <c r="A41" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="3" t="b">
+      <c r="B41" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       <c r="A42" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="3" t="b">
+      <c r="B42" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       <c r="A43" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="3" t="b">
+      <c r="B43" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       <c r="A44" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="3" t="b">
+      <c r="B44" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       <c r="A45" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="3" t="b">
+      <c r="B45" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       <c r="A46" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="3" t="b">
+      <c r="B46" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       <c r="A47" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="3" t="b">
+      <c r="B47" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       <c r="A48" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="3" t="b">
+      <c r="B48" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       <c r="A49" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       <c r="A50" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       <c r="A51" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       <c r="A52" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       <c r="A53" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       <c r="A54" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       <c r="A55" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       <c r="A56" t="s">
         <v>79</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       <c r="A57" t="s">
         <v>80</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       <c r="A60" t="s">
         <v>86</v>
       </c>
-      <c r="B60" t="b">
+      <c r="B60" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       <c r="A61" t="s">
         <v>87</v>
       </c>
-      <c r="B61" t="b">
+      <c r="B61" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       <c r="A62" t="s">
         <v>88</v>
       </c>
-      <c r="B62" t="b">
+      <c r="B62" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       <c r="A63" t="s">
         <v>89</v>
       </c>
-      <c r="B63" t="b">
+      <c r="B63" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       <c r="A64" t="s">
         <v>90</v>
       </c>
-      <c r="B64" t="b">
+      <c r="B64" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       <c r="A65" t="s">
         <v>91</v>
       </c>
-      <c r="B65" t="b">
+      <c r="B65" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       <c r="A66" t="s">
         <v>92</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       <c r="A67" t="s">
         <v>93</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
       <c r="A68" t="s">
         <v>95</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       <c r="A69" t="s">
         <v>96</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       <c r="A70" t="s">
         <v>98</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       <c r="A71" t="s">
         <v>100</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
       <c r="A72" t="s">
         <v>102</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       <c r="A73" t="s">
         <v>104</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       <c r="A74" t="s">
         <v>106</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       <c r="A75" t="s">
         <v>108</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       <c r="A76" t="s">
         <v>110</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       <c r="A77" t="s">
         <v>112</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       <c r="A78" t="s">
         <v>113</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       <c r="A79" t="s">
         <v>115</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       <c r="A80" t="s">
         <v>117</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       <c r="A81" t="s">
         <v>118</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       <c r="A82" t="s">
         <v>120</v>
       </c>
-      <c r="B82" t="b">
+      <c r="B82" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       <c r="A83" t="s">
         <v>121</v>
       </c>
-      <c r="B83" t="b">
+      <c r="B83" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       <c r="A84" t="s">
         <v>122</v>
       </c>
-      <c r="B84" t="b">
+      <c r="B84" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       <c r="A85" t="s">
         <v>123</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       <c r="A86" t="s">
         <v>125</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="A87" t="s">
         <v>127</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       <c r="A88" t="s">
         <v>128</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       <c r="A89" t="s">
         <v>130</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       <c r="A90" t="s">
         <v>132</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       <c r="A91" t="s">
         <v>134</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       <c r="A92" t="s">
         <v>136</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
       <c r="A93" t="s">
         <v>138</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       <c r="A94" t="s">
         <v>139</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       <c r="A95" t="s">
         <v>140</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       <c r="A96" t="s">
         <v>142</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       <c r="A97" t="s">
         <v>143</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
       <c r="A98" t="s">
         <v>145</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       <c r="A99" t="s">
         <v>147</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       <c r="A100" t="s">
         <v>149</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       <c r="A101" t="s">
         <v>150</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="3" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       <c r="A102" t="s">
         <v>152</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       <c r="A103" t="s">
         <v>153</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       <c r="A105" t="s">
         <v>157</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       <c r="A106" t="s">
         <v>158</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       <c r="A107" t="s">
         <v>160</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       <c r="A108" t="s">
         <v>161</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       <c r="A109" t="s">
         <v>163</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       <c r="A110" t="s">
         <v>164</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       <c r="A111" t="s">
         <v>166</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       <c r="A112" t="s">
         <v>167</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
       <c r="A113" t="s">
         <v>169</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       <c r="A114" t="s">
         <v>170</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       <c r="A115" t="s">
         <v>171</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       <c r="A116" t="s">
         <v>172</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       <c r="A117" t="s">
         <v>173</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       <c r="A118" t="s">
         <v>174</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       <c r="A119" t="s">
         <v>175</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       <c r="A120" t="s">
         <v>176</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       <c r="A121" t="s">
         <v>177</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
       <c r="A122" t="s">
         <v>178</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       <c r="A123" t="s">
         <v>179</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       <c r="A124" t="s">
         <v>180</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       <c r="A125" t="s">
         <v>181</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       <c r="A126" t="s">
         <v>182</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       <c r="A127" t="s">
         <v>183</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       <c r="A128" t="s">
         <v>184</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       <c r="A129" t="s">
         <v>185</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       <c r="A130" t="s">
         <v>186</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       <c r="A131" t="s">
         <v>187</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       <c r="A132" t="s">
         <v>188</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>189</v>
       </c>
     </row>

--- a/JPS_1_AST/misc/Zapytania testowe JPS.xlsx
+++ b/JPS_1_AST/misc/Zapytania testowe JPS.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -953,8 +952,8 @@
   <dimension ref="A1:B132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/JPS_1_AST/misc/Zapytania testowe JPS.xlsx
+++ b/JPS_1_AST/misc/Zapytania testowe JPS.xlsx
@@ -609,18 +609,12 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -639,13 +633,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -660,6 +654,7216 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5667375" y="161925"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5667375" y="323850"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 76" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 84" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 85" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Picture 86" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 87" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Picture 88" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 89" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 90" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 91" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Picture 92" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Picture 93" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Picture 94" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Picture 95" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Picture 96" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 97" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Picture 98" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 99" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Picture 100" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 101" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Picture 102" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 103" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Picture 104" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 105" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Picture 106" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Picture 107" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="Picture 108" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Picture 109" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Picture 110" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Picture 111" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Picture 112" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Picture 113" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Picture 114" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Picture 115" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="Picture 116" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="Picture 117" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="Picture 118" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="Picture 119" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="Picture 120" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="Picture 121" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="Picture 122" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="Picture 123" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="Picture 124" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="Picture 125" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="127" name="Picture 126" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="128" name="Picture 127" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="129" name="Picture 128" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="Picture 129" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="Picture 130" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="Picture 131" descr="Check mark symbol"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5673587" y="331304"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -952,8 +8156,8 @@
   <dimension ref="A1:B132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -974,7 +8178,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="b">
+      <c r="B2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -982,7 +8186,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="b">
+      <c r="B3" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -990,7 +8194,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="b">
+      <c r="B4" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -998,7 +8202,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="b">
+      <c r="B5" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +8210,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="b">
+      <c r="B6" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1014,7 +8218,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="b">
+      <c r="B7" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1022,7 +8226,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="b">
+      <c r="B8" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1030,7 +8234,7 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="b">
+      <c r="B9" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1038,7 +8242,7 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="b">
+      <c r="B10" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1046,7 +8250,7 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1054,7 +8258,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1062,7 +8266,7 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1070,7 +8274,7 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1078,7 +8282,7 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1086,7 +8290,7 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1094,7 +8298,7 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1102,7 +8306,7 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1110,7 +8314,7 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1118,7 +8322,7 @@
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1126,7 +8330,7 @@
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1134,7 +8338,7 @@
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1142,7 +8346,7 @@
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1150,7 +8354,7 @@
       <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1158,7 +8362,7 @@
       <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1166,7 +8370,7 @@
       <c r="A26" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1174,7 +8378,7 @@
       <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1182,7 +8386,7 @@
       <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1190,7 +8394,7 @@
       <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1198,7 +8402,7 @@
       <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1206,7 +8410,7 @@
       <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1214,7 +8418,7 @@
       <c r="A32" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1222,7 +8426,7 @@
       <c r="A33" t="s">
         <v>47</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1230,7 +8434,7 @@
       <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1238,7 +8442,7 @@
       <c r="A35" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="2" t="b">
+      <c r="B35" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1246,7 +8450,7 @@
       <c r="A36" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="2" t="b">
+      <c r="B36" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1254,7 +8458,7 @@
       <c r="A37" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1262,7 +8466,7 @@
       <c r="A38" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="2" t="b">
+      <c r="B38" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1270,7 +8474,7 @@
       <c r="A39" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="2" t="b">
+      <c r="B39" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1278,7 +8482,7 @@
       <c r="A40" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="2" t="b">
+      <c r="B40" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1286,7 +8490,7 @@
       <c r="A41" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="2" t="b">
+      <c r="B41" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1294,7 +8498,7 @@
       <c r="A42" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="2" t="b">
+      <c r="B42" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1302,7 +8506,7 @@
       <c r="A43" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="2" t="b">
+      <c r="B43" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1310,7 +8514,7 @@
       <c r="A44" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="2" t="b">
+      <c r="B44" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1318,7 +8522,7 @@
       <c r="A45" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="2" t="b">
+      <c r="B45" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1326,7 +8530,7 @@
       <c r="A46" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="2" t="b">
+      <c r="B46" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1334,7 +8538,7 @@
       <c r="A47" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="2" t="b">
+      <c r="B47" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1342,7 +8546,7 @@
       <c r="A48" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="2" t="b">
+      <c r="B48" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1350,7 +8554,7 @@
       <c r="A49" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1358,7 +8562,7 @@
       <c r="A50" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1366,7 +8570,7 @@
       <c r="A51" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1374,7 +8578,7 @@
       <c r="A52" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1382,7 +8586,7 @@
       <c r="A53" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1390,7 +8594,7 @@
       <c r="A54" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1398,7 +8602,7 @@
       <c r="A55" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1406,7 +8610,7 @@
       <c r="A56" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1414,7 +8618,7 @@
       <c r="A57" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1422,7 +8626,7 @@
       <c r="A58" t="s">
         <v>82</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1430,7 +8634,7 @@
       <c r="A59" t="s">
         <v>84</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1438,7 +8642,7 @@
       <c r="A60" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="2" t="b">
+      <c r="B60" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1446,7 +8650,7 @@
       <c r="A61" t="s">
         <v>87</v>
       </c>
-      <c r="B61" s="2" t="b">
+      <c r="B61" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1454,7 +8658,7 @@
       <c r="A62" t="s">
         <v>88</v>
       </c>
-      <c r="B62" s="2" t="b">
+      <c r="B62" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1462,7 +8666,7 @@
       <c r="A63" t="s">
         <v>89</v>
       </c>
-      <c r="B63" s="2" t="b">
+      <c r="B63" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1470,7 +8674,7 @@
       <c r="A64" t="s">
         <v>90</v>
       </c>
-      <c r="B64" s="2" t="b">
+      <c r="B64" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1478,7 +8682,7 @@
       <c r="A65" t="s">
         <v>91</v>
       </c>
-      <c r="B65" s="2" t="b">
+      <c r="B65" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1486,7 +8690,7 @@
       <c r="A66" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1494,7 +8698,7 @@
       <c r="A67" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1502,7 +8706,7 @@
       <c r="A68" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1510,7 +8714,7 @@
       <c r="A69" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1518,7 +8722,7 @@
       <c r="A70" t="s">
         <v>98</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1526,7 +8730,7 @@
       <c r="A71" t="s">
         <v>100</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1534,7 +8738,7 @@
       <c r="A72" t="s">
         <v>102</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1542,7 +8746,7 @@
       <c r="A73" t="s">
         <v>104</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1550,7 +8754,7 @@
       <c r="A74" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1558,7 +8762,7 @@
       <c r="A75" t="s">
         <v>108</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1566,7 +8770,7 @@
       <c r="A76" t="s">
         <v>110</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1574,7 +8778,7 @@
       <c r="A77" t="s">
         <v>112</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1582,7 +8786,7 @@
       <c r="A78" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1590,7 +8794,7 @@
       <c r="A79" t="s">
         <v>115</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1598,7 +8802,7 @@
       <c r="A80" t="s">
         <v>117</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1606,7 +8810,7 @@
       <c r="A81" t="s">
         <v>118</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1614,7 +8818,7 @@
       <c r="A82" t="s">
         <v>120</v>
       </c>
-      <c r="B82" s="2" t="b">
+      <c r="B82" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1622,7 +8826,7 @@
       <c r="A83" t="s">
         <v>121</v>
       </c>
-      <c r="B83" s="2" t="b">
+      <c r="B83" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1630,7 +8834,7 @@
       <c r="A84" t="s">
         <v>122</v>
       </c>
-      <c r="B84" s="2" t="b">
+      <c r="B84" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1638,7 +8842,7 @@
       <c r="A85" t="s">
         <v>123</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1646,7 +8850,7 @@
       <c r="A86" t="s">
         <v>125</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1654,7 +8858,7 @@
       <c r="A87" t="s">
         <v>127</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1662,7 +8866,7 @@
       <c r="A88" t="s">
         <v>128</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1670,7 +8874,7 @@
       <c r="A89" t="s">
         <v>130</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1678,7 +8882,7 @@
       <c r="A90" t="s">
         <v>132</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1686,7 +8890,7 @@
       <c r="A91" t="s">
         <v>134</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1694,7 +8898,7 @@
       <c r="A92" t="s">
         <v>136</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1702,7 +8906,7 @@
       <c r="A93" t="s">
         <v>138</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1710,7 +8914,7 @@
       <c r="A94" t="s">
         <v>139</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1718,7 +8922,7 @@
       <c r="A95" t="s">
         <v>140</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1726,7 +8930,7 @@
       <c r="A96" t="s">
         <v>142</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1734,7 +8938,7 @@
       <c r="A97" t="s">
         <v>143</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1742,7 +8946,7 @@
       <c r="A98" t="s">
         <v>145</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1750,7 +8954,7 @@
       <c r="A99" t="s">
         <v>147</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1758,7 +8962,7 @@
       <c r="A100" t="s">
         <v>149</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1774,7 +8978,7 @@
       <c r="A102" t="s">
         <v>152</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1782,7 +8986,7 @@
       <c r="A103" t="s">
         <v>153</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1790,7 +8994,7 @@
       <c r="A104" t="s">
         <v>155</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1798,7 +9002,7 @@
       <c r="A105" t="s">
         <v>157</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1806,7 +9010,7 @@
       <c r="A106" t="s">
         <v>158</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1814,7 +9018,7 @@
       <c r="A107" t="s">
         <v>160</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1822,7 +9026,7 @@
       <c r="A108" t="s">
         <v>161</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1830,7 +9034,7 @@
       <c r="A109" t="s">
         <v>163</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1838,7 +9042,7 @@
       <c r="A110" t="s">
         <v>164</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1846,7 +9050,7 @@
       <c r="A111" t="s">
         <v>166</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1854,7 +9058,7 @@
       <c r="A112" t="s">
         <v>167</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1862,7 +9066,7 @@
       <c r="A113" t="s">
         <v>169</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1870,7 +9074,7 @@
       <c r="A114" t="s">
         <v>170</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1878,7 +9082,7 @@
       <c r="A115" t="s">
         <v>171</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1886,7 +9090,7 @@
       <c r="A116" t="s">
         <v>172</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1894,7 +9098,7 @@
       <c r="A117" t="s">
         <v>173</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1902,7 +9106,7 @@
       <c r="A118" t="s">
         <v>174</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1910,7 +9114,7 @@
       <c r="A119" t="s">
         <v>175</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1918,7 +9122,7 @@
       <c r="A120" t="s">
         <v>176</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1926,7 +9130,7 @@
       <c r="A121" t="s">
         <v>177</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1934,7 +9138,7 @@
       <c r="A122" t="s">
         <v>178</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1942,7 +9146,7 @@
       <c r="A123" t="s">
         <v>179</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1950,7 +9154,7 @@
       <c r="A124" t="s">
         <v>180</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1958,7 +9162,7 @@
       <c r="A125" t="s">
         <v>181</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1966,7 +9170,7 @@
       <c r="A126" t="s">
         <v>182</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1974,7 +9178,7 @@
       <c r="A127" t="s">
         <v>183</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1982,7 +9186,7 @@
       <c r="A128" t="s">
         <v>184</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1990,7 +9194,7 @@
       <c r="A129" t="s">
         <v>185</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1998,7 +9202,7 @@
       <c r="A130" t="s">
         <v>186</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2006,7 +9210,7 @@
       <c r="A131" t="s">
         <v>187</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2014,11 +9218,13 @@
       <c r="A132" t="s">
         <v>188</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>189</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>